--- a/Files as of 5-26/SpecialAttacks.xlsx
+++ b/Files as of 5-26/SpecialAttacks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sierra\Documents\Post Bacc College Stuff\CSCD 349\Team Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\CSCD349_TeamProject\Files as of 5-26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Good Guys</t>
   </si>
@@ -90,6 +90,33 @@
   </si>
   <si>
     <t>Zombie</t>
+  </si>
+  <si>
+    <t>PerciseHit</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Bats</t>
+  </si>
+  <si>
+    <t>DoubleAttack</t>
+  </si>
+  <si>
+    <t>FireBall</t>
+  </si>
+  <si>
+    <t>ShieldBash</t>
+  </si>
+  <si>
+    <t>PoisonAttack</t>
+  </si>
+  <si>
+    <t>DrainLife</t>
+  </si>
+  <si>
+    <t>BodySlam</t>
   </si>
 </sst>
 </file>
@@ -419,7 +446,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,40 +485,67 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Files as of 5-26/SpecialAttacks.xlsx
+++ b/Files as of 5-26/SpecialAttacks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Good Guys</t>
   </si>
@@ -117,6 +117,33 @@
   </si>
   <si>
     <t>BodySlam</t>
+  </si>
+  <si>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>BoneSpare</t>
+  </si>
+  <si>
+    <t>BloodLust</t>
+  </si>
+  <si>
+    <t>Smash</t>
+  </si>
+  <si>
+    <t>RockThrow</t>
+  </si>
+  <si>
+    <t>FireBreath</t>
+  </si>
+  <si>
+    <t>Stratch</t>
+  </si>
+  <si>
+    <t>Slash --lame!</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -446,7 +473,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +515,9 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -496,6 +526,9 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -504,6 +537,9 @@
       <c r="B4" t="s">
         <v>29</v>
       </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -512,8 +548,14 @@
       <c r="B5" t="s">
         <v>28</v>
       </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
       <c r="E5" t="s">
         <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -523,6 +565,9 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -531,6 +576,9 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -539,6 +587,9 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -547,6 +598,9 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -566,40 +620,88 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Files as of 5-26/SpecialAttacks.xlsx
+++ b/Files as of 5-26/SpecialAttacks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Good Guys</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>AttackBuff</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +535,12 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -577,6 +589,12 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
       </c>
     </row>
